--- a/Excel-XLSX/UN-ALG.xlsx
+++ b/Excel-XLSX/UN-ALG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="845">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>l5UwEO</t>
+    <t>nm5KaF</t>
   </si>
   <si>
     <t>1970</t>
@@ -2463,7 +2463,7 @@
     <t>566</t>
   </si>
   <si>
-    <t>735</t>
+    <t>804</t>
   </si>
   <si>
     <t>567</t>
@@ -2487,12 +2487,21 @@
     <t>573</t>
   </si>
   <si>
-    <t>1034</t>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MAU</t>
+  </si>
+  <si>
+    <t>MRT</t>
   </si>
   <si>
     <t>574</t>
   </si>
   <si>
+    <t>1379</t>
+  </si>
+  <si>
     <t>575</t>
   </si>
   <si>
@@ -2508,25 +2517,40 @@
     <t>579</t>
   </si>
   <si>
-    <t>8382</t>
-  </si>
-  <si>
     <t>580</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
     <t>581</t>
   </si>
   <si>
     <t>582</t>
   </si>
   <si>
+    <t>8742</t>
+  </si>
+  <si>
     <t>583</t>
   </si>
   <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
     <t>173600</t>
   </si>
   <si>
-    <t>584</t>
+    <t>587</t>
   </si>
 </sst>
 </file>
@@ -2911,7 +2935,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V585"/>
+  <dimension ref="A1:V588"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -40771,7 +40795,7 @@
         <v>34</v>
       </c>
       <c r="O557" s="2" t="s">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="P557" s="2" t="s">
         <v>34</v>
@@ -40836,10 +40860,10 @@
         <v>32</v>
       </c>
       <c r="N558" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O558" s="2" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="P558" s="2" t="s">
         <v>34</v>
@@ -40904,10 +40928,10 @@
         <v>32</v>
       </c>
       <c r="N559" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="O559" s="2" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="P559" s="2" t="s">
         <v>34</v>
@@ -40972,10 +40996,10 @@
         <v>32</v>
       </c>
       <c r="N560" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O560" s="2" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="P560" s="2" t="s">
         <v>34</v>
@@ -41040,10 +41064,10 @@
         <v>32</v>
       </c>
       <c r="N561" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O561" s="2" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="P561" s="2" t="s">
         <v>34</v>
@@ -41111,7 +41135,7 @@
         <v>34</v>
       </c>
       <c r="O562" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="P562" s="2" t="s">
         <v>34</v>
@@ -41176,10 +41200,10 @@
         <v>32</v>
       </c>
       <c r="N563" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="O563" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="P563" s="2" t="s">
         <v>34</v>
@@ -41244,7 +41268,7 @@
         <v>32</v>
       </c>
       <c r="N564" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O564" s="2" t="s">
         <v>49</v>
@@ -41315,7 +41339,7 @@
         <v>34</v>
       </c>
       <c r="O565" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P565" s="2" t="s">
         <v>34</v>
@@ -41516,10 +41540,10 @@
         <v>32</v>
       </c>
       <c r="N568" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O568" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="P568" s="2" t="s">
         <v>34</v>
@@ -41723,7 +41747,7 @@
         <v>34</v>
       </c>
       <c r="O571" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P571" s="2" t="s">
         <v>34</v>
@@ -41788,10 +41812,10 @@
         <v>32</v>
       </c>
       <c r="N572" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O572" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P572" s="2" t="s">
         <v>34</v>
@@ -41900,16 +41924,16 @@
         <v>803</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="G574" s="1" t="s">
-        <v>157</v>
+        <v>823</v>
       </c>
       <c r="H574" s="1" t="s">
-        <v>158</v>
+        <v>824</v>
       </c>
       <c r="I574" s="1" t="s">
-        <v>158</v>
+        <v>825</v>
       </c>
       <c r="J574" s="2" t="s">
         <v>29</v>
@@ -41924,10 +41948,10 @@
         <v>32</v>
       </c>
       <c r="N574" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O574" s="2" t="s">
-        <v>823</v>
+        <v>49</v>
       </c>
       <c r="P574" s="2" t="s">
         <v>34</v>
@@ -41962,22 +41986,22 @@
         <v>22</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G575" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H575" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I575" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J575" s="2" t="s">
         <v>29</v>
@@ -41992,10 +42016,10 @@
         <v>32</v>
       </c>
       <c r="N575" s="2" t="s">
-        <v>49</v>
+        <v>381</v>
       </c>
       <c r="O575" s="2" t="s">
-        <v>374</v>
+        <v>827</v>
       </c>
       <c r="P575" s="2" t="s">
         <v>34</v>
@@ -42030,22 +42054,22 @@
         <v>22</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E576" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="H576" s="1" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="I576" s="1" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="J576" s="2" t="s">
         <v>29</v>
@@ -42060,10 +42084,10 @@
         <v>32</v>
       </c>
       <c r="N576" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="O576" s="2" t="s">
-        <v>616</v>
+        <v>399</v>
       </c>
       <c r="P576" s="2" t="s">
         <v>34</v>
@@ -42098,22 +42122,22 @@
         <v>22</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
       <c r="G577" s="1" t="s">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="H577" s="1" t="s">
-        <v>395</v>
+        <v>263</v>
       </c>
       <c r="I577" s="1" t="s">
-        <v>395</v>
+        <v>264</v>
       </c>
       <c r="J577" s="2" t="s">
         <v>29</v>
@@ -42128,10 +42152,10 @@
         <v>32</v>
       </c>
       <c r="N577" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="O577" s="2" t="s">
-        <v>91</v>
+        <v>668</v>
       </c>
       <c r="P577" s="2" t="s">
         <v>34</v>
@@ -42166,22 +42190,22 @@
         <v>22</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="G578" s="1" t="s">
-        <v>267</v>
+        <v>394</v>
       </c>
       <c r="H578" s="1" t="s">
-        <v>268</v>
+        <v>395</v>
       </c>
       <c r="I578" s="1" t="s">
-        <v>268</v>
+        <v>395</v>
       </c>
       <c r="J578" s="2" t="s">
         <v>29</v>
@@ -42199,7 +42223,7 @@
         <v>34</v>
       </c>
       <c r="O578" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="P578" s="2" t="s">
         <v>34</v>
@@ -42234,22 +42258,22 @@
         <v>22</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G579" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H579" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I579" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J579" s="2" t="s">
         <v>29</v>
@@ -42264,10 +42288,10 @@
         <v>32</v>
       </c>
       <c r="N579" s="2" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="O579" s="2" t="s">
-        <v>301</v>
+        <v>144</v>
       </c>
       <c r="P579" s="2" t="s">
         <v>34</v>
@@ -42302,22 +42326,22 @@
         <v>22</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G580" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H580" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I580" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="J580" s="2" t="s">
         <v>29</v>
@@ -42332,13 +42356,13 @@
         <v>32</v>
       </c>
       <c r="N580" s="2" t="s">
-        <v>830</v>
+        <v>34</v>
       </c>
       <c r="O580" s="2" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="P580" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="Q580" s="2" t="s">
         <v>34</v>
@@ -42370,22 +42394,22 @@
         <v>22</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G581" s="1" t="s">
-        <v>354</v>
+        <v>834</v>
       </c>
       <c r="H581" s="1" t="s">
-        <v>355</v>
+        <v>835</v>
       </c>
       <c r="I581" s="1" t="s">
-        <v>356</v>
+        <v>835</v>
       </c>
       <c r="J581" s="2" t="s">
         <v>29</v>
@@ -42403,7 +42427,7 @@
         <v>34</v>
       </c>
       <c r="O581" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="P581" s="2" t="s">
         <v>34</v>
@@ -42438,22 +42462,22 @@
         <v>22</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>374</v>
+        <v>273</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>597</v>
+        <v>274</v>
       </c>
       <c r="H582" s="1" t="s">
-        <v>598</v>
+        <v>275</v>
       </c>
       <c r="I582" s="1" t="s">
-        <v>598</v>
+        <v>276</v>
       </c>
       <c r="J582" s="2" t="s">
         <v>29</v>
@@ -42468,10 +42492,10 @@
         <v>32</v>
       </c>
       <c r="N582" s="2" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="O582" s="2" t="s">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="P582" s="2" t="s">
         <v>34</v>
@@ -42506,22 +42530,22 @@
         <v>22</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>656</v>
+        <v>279</v>
       </c>
       <c r="H583" s="1" t="s">
-        <v>657</v>
+        <v>280</v>
       </c>
       <c r="I583" s="1" t="s">
-        <v>657</v>
+        <v>280</v>
       </c>
       <c r="J583" s="2" t="s">
         <v>29</v>
@@ -42536,10 +42560,10 @@
         <v>32</v>
       </c>
       <c r="N583" s="2" t="s">
-        <v>49</v>
+        <v>838</v>
       </c>
       <c r="O583" s="2" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="P583" s="2" t="s">
         <v>34</v>
@@ -42574,22 +42598,22 @@
         <v>22</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="G584" s="1" t="s">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="H584" s="1" t="s">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="I584" s="1" t="s">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="J584" s="2" t="s">
         <v>29</v>
@@ -42604,10 +42628,10 @@
         <v>32</v>
       </c>
       <c r="N584" s="2" t="s">
-        <v>835</v>
+        <v>34</v>
       </c>
       <c r="O584" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="P584" s="2" t="s">
         <v>34</v>
@@ -42642,60 +42666,264 @@
         <v>22</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F585" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J585" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L585" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M585" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N585" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O585" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P585" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q585" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R585" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S585" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T585" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U585" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V585" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J586" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L586" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M586" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N586" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O586" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P586" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q586" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R586" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S586" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T586" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U586" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V586" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J587" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K587" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L587" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M587" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N587" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="O587" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P587" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q587" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R587" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S587" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T587" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U587" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V587" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F588" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G585" s="1" t="s">
+      <c r="G588" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H585" s="1" t="s">
+      <c r="H588" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="I585" s="1" t="s">
+      <c r="I588" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="J585" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K585" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L585" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M585" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N585" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O585" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P585" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q585" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R585" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S585" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T585" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U585" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V585" s="2" t="s">
+      <c r="J588" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L588" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M588" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N588" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O588" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P588" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q588" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R588" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S588" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T588" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U588" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V588" s="2" t="s">
         <v>34</v>
       </c>
     </row>
